--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D9AEE9-C1D2-FC40-9963-6152221F576F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F00035-81EA-2642-A02E-3B4B3035AF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
+    <workbookView xWindow="14780" yWindow="7200" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="170">
   <si>
     <t>Title</t>
   </si>
@@ -97,6 +97,102 @@
     <t>14Oct24: OK</t>
   </si>
   <si>
+    <t xml:space="preserve">Prof. </t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>W.G.</t>
+  </si>
+  <si>
+    <t>w.luk@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>Wayne Luk</t>
+  </si>
+  <si>
+    <t>Imperial-Computing</t>
+  </si>
+  <si>
+    <t>Department of Computing, Imperial College London, Exhibition Road, London SW7 2AZ</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry </t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>H.C.</t>
+  </si>
+  <si>
+    <t>hharrywho@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry C. Hall </t>
+  </si>
+  <si>
+    <t>Imperial-NHS-CX-PPI</t>
+  </si>
+  <si>
+    <t>Imperial College London, CRUK PPI group, Charing Cross Hospital, London W6 8RF</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>McLauchlan</t>
+  </si>
+  <si>
+    <t>R.</t>
+  </si>
+  <si>
+    <t>ruth.mclauchlan@nhs.net</t>
+  </si>
+  <si>
+    <t>R. McLauchlan</t>
+  </si>
+  <si>
+    <t>Imperial-NHS-RadPhys-Rbio</t>
+  </si>
+  <si>
+    <t>Dept. Radiation Physics and Radiobiology, Imperial College Healthcare NHS Trust, London, UK</t>
+  </si>
+  <si>
+    <t>Phys-ICL</t>
+  </si>
+  <si>
+    <t>Department of Physics, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>0000-0003-2418-2200</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>Hardiman</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>claire.hardiman@nhs.net</t>
+  </si>
+  <si>
+    <t>C. Hardiman</t>
+  </si>
+  <si>
     <t>Dorothy</t>
   </si>
   <si>
@@ -115,13 +211,310 @@
     <t>Imperial-NHSHcT</t>
   </si>
   <si>
-    <t>Imperial College NHS Healthcare Trust, The Bays, South Wharf Road, St Mary's Hospital, London W2 1NY, UK</t>
-  </si>
-  <si>
-    <t>IB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. </t>
+    <t>Imperial College NHS Healthcare Trust, Department of Clinical Oncology, Charing Cross Hospital, London W6 8RF, UK</t>
+  </si>
+  <si>
+    <t>Gareth</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>w.g.jones@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>W. G. Jones</t>
+  </si>
+  <si>
+    <t>Imperial-Physics</t>
+  </si>
+  <si>
+    <t>IC-NHS-CX-PPI</t>
+  </si>
+  <si>
+    <t>0000-0002-9088-0149</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Josie</t>
+  </si>
+  <si>
+    <t>McGarrigle</t>
+  </si>
+  <si>
+    <t>J.M.</t>
+  </si>
+  <si>
+    <t>josie.mcgarrigle19@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>Josie M. McGarrigle </t>
+  </si>
+  <si>
+    <t>Department of Physics, Imperial College London, Exhibition Road, London SW7 2AZ, UK </t>
+  </si>
+  <si>
+    <t>Inst-Curie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut Curie,  73 Rue Claude Bernard,  75005, Paris, France </t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>ahoward@mail.cern.ch</t>
+  </si>
+  <si>
+    <t>A. Howard</t>
+  </si>
+  <si>
+    <t>Hin Tung</t>
+  </si>
+  <si>
+    <t>Lau</t>
+  </si>
+  <si>
+    <t>H.T.</t>
+  </si>
+  <si>
+    <t>h.lau17@IMPERIAL.AC.UK</t>
+  </si>
+  <si>
+    <t>H.T. Lau</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>R.A.</t>
+  </si>
+  <si>
+    <t>r.a.smith@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>R. Smith</t>
+  </si>
+  <si>
+    <t>Ta-Jen</t>
+  </si>
+  <si>
+    <t>Kuo</t>
+  </si>
+  <si>
+    <t>T.J.</t>
+  </si>
+  <si>
+    <t>ta-jen.kuo18@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>T.J. Kuo</t>
+  </si>
+  <si>
+    <t>JohnAdamsInstitute-Imperial</t>
+  </si>
+  <si>
+    <t>The John Adams Institute for Accelerator Science, Department of Physics, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>STFC-ISIS</t>
+  </si>
+  <si>
+    <t>STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>Ajit</t>
+  </si>
+  <si>
+    <t>Kurup</t>
+  </si>
+  <si>
+    <t>a.kurup@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>Ajit Kurup</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Maxouti</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>m.maxouti21@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>Particle Physics Department, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>0000-0002-9448-8419</t>
+  </si>
+  <si>
+    <t>Jaroslaw</t>
+  </si>
+  <si>
+    <t>Pasternak</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
+    <t>j.pasternak@IMPERIAL.AC.UK</t>
+  </si>
+  <si>
+    <t>J. Pasternak</t>
+  </si>
+  <si>
+    <t>CERN</t>
+  </si>
+  <si>
+    <t>CERN, CH-1211 Geneva 23, Switzerland</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>rebecca.taylor18@IMPERIAL.AC.UK</t>
+  </si>
+  <si>
+    <t>R Taylor</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>N.P.</t>
+  </si>
+  <si>
+    <t>nicholas.dover08@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>Nicholas P.Dover</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Ettlinger</t>
+  </si>
+  <si>
+    <t>O.C.</t>
+  </si>
+  <si>
+    <t>o.ettlinger13@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>O.C. Ettlinger</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>K.R.</t>
+  </si>
+  <si>
+    <t>k.long@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth R. Long </t>
+  </si>
+  <si>
+    <t>0000-0002-3181-0351</t>
+  </si>
+  <si>
+    <t>Zulfikar</t>
+  </si>
+  <si>
+    <t>Najmudin</t>
+  </si>
+  <si>
+    <t>Z.</t>
+  </si>
+  <si>
+    <t>z.najmudin@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>Z. Najmudin</t>
+  </si>
+  <si>
+    <t>0000-0001-6323-4005</t>
+  </si>
+  <si>
+    <t>Juergen</t>
+  </si>
+  <si>
+    <t>Pozimski</t>
+  </si>
+  <si>
+    <t>j.pozimski@IMPERIAL.AC.UK</t>
+  </si>
+  <si>
+    <t>J. Pozimski</t>
+  </si>
+  <si>
+    <t>Anthea</t>
+  </si>
+  <si>
+    <t>MacIntosh-LaRocque</t>
+  </si>
+  <si>
+    <t>A.E.</t>
+  </si>
+  <si>
+    <t>anthea.macintosh-larocque18@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>Anthea E. Macintosh-LaRoque</t>
+  </si>
+  <si>
+    <t>0000-0001-8212-2682</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>P.</t>
+  </si>
+  <si>
+    <t>p.price@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>P. Price</t>
+  </si>
+  <si>
+    <t>Imperial-SurgCanc</t>
+  </si>
+  <si>
+    <t>Department of Surgery and Cancer, Imperial College, Hammersmith Hospital London W12 0NN</t>
+  </si>
+  <si>
+    <t>TskMan, EB</t>
   </si>
   <si>
     <t>Iain</t>
@@ -137,204 +530,6 @@
   </si>
   <si>
     <t>I. McNeish</t>
-  </si>
-  <si>
-    <t>Imoerial-SurgCanc</t>
-  </si>
-  <si>
-    <t>Department of Surgery and Cancer, Imperial College, Hammersmith Hospital London W12 0NN</t>
-  </si>
-  <si>
-    <t>Pat</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>P.</t>
-  </si>
-  <si>
-    <t>p.price@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>P. Price</t>
-  </si>
-  <si>
-    <t>TskMan, EB</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry </t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>H.C.</t>
-  </si>
-  <si>
-    <t>hharrywho@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry C. Hall </t>
-  </si>
-  <si>
-    <t>IC-NHS-CX-PPI</t>
-  </si>
-  <si>
-    <t>Imperial College London, CRUK PPI group, Charing Cross Hospital, London W6 8RF</t>
-  </si>
-  <si>
-    <t>Ruth</t>
-  </si>
-  <si>
-    <t>McLauchlan</t>
-  </si>
-  <si>
-    <t>R.</t>
-  </si>
-  <si>
-    <t>ruth.mclauchlan@nhs.net</t>
-  </si>
-  <si>
-    <t>R. McLauchlan</t>
-  </si>
-  <si>
-    <t>Imperial-NHS-RadPhys-Rbio</t>
-  </si>
-  <si>
-    <t>Dept. Radiation Physics and Radiobiology, Imperial College Healthcare NHS Trust, London, UK</t>
-  </si>
-  <si>
-    <t>Phys-ICL</t>
-  </si>
-  <si>
-    <t>Department of Physics, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
-  </si>
-  <si>
-    <t>Claire</t>
-  </si>
-  <si>
-    <t>Hardiman</t>
-  </si>
-  <si>
-    <t>C.</t>
-  </si>
-  <si>
-    <t>claire.hardiman@nhs.net</t>
-  </si>
-  <si>
-    <t>C. Hardiman</t>
-  </si>
-  <si>
-    <t>Gareth</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>W.G.</t>
-  </si>
-  <si>
-    <t>w.g.jones@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>W. G. Jones</t>
-  </si>
-  <si>
-    <t>Imperial-Physics</t>
-  </si>
-  <si>
-    <t>0000-0002-9088-0149</t>
-  </si>
-  <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>Josie</t>
-  </si>
-  <si>
-    <t>McGarrigle</t>
-  </si>
-  <si>
-    <t>J.M.</t>
-  </si>
-  <si>
-    <t>josie.mcgarrigle19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Josie M. McGarrigle </t>
-  </si>
-  <si>
-    <t>Department of Physics, Imperial College London, Exhibition Road, London SW7 2AZ, UK </t>
-  </si>
-  <si>
-    <t>Inst-Curie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut Curie,  73 Rue Claude Bernard,  75005, Paris, France </t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>ahoward@mail.cern.ch</t>
-  </si>
-  <si>
-    <t>A. Howard</t>
-  </si>
-  <si>
-    <t>Hin Tung</t>
-  </si>
-  <si>
-    <t>Lau</t>
-  </si>
-  <si>
-    <t>H.T.</t>
-  </si>
-  <si>
-    <t>h.lau17@IMPERIAL.AC.UK</t>
-  </si>
-  <si>
-    <t>H.T. Lau</t>
-  </si>
-  <si>
-    <t>Roland</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>R.A.</t>
-  </si>
-  <si>
-    <t>r.a.smith@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>R. Smith</t>
-  </si>
-  <si>
-    <t>Wayne</t>
-  </si>
-  <si>
-    <t>Luk</t>
-  </si>
-  <si>
-    <t>w.luk@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Wayne Luk</t>
-  </si>
-  <si>
-    <t>Department of Computing, Imperial College London, Exhibition Road, London SW7 2AZ</t>
-  </si>
-  <si>
-    <t>Imperial-Computing</t>
   </si>
 </sst>
 </file>
@@ -477,7 +672,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,14 +852,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -779,26 +968,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -844,15 +1013,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -912,25 +1074,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}" name="Table1" displayName="Table1" ref="A1:P14" totalsRowShown="0">
-  <autoFilter ref="A1:P14" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P27" totalsRowShown="0">
+  <autoFilter ref="A1:P27" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{FD39909D-050E-1147-B84A-EAE5260274A2}" name="Title"/>
-    <tableColumn id="2" xr3:uid="{7A9B98C2-9D8E-EC40-86C1-C916EC7E033F}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{B5D8C46E-E900-434D-AE73-A2437D749098}" name="Surname"/>
-    <tableColumn id="4" xr3:uid="{E1FD7066-7C52-DA45-968D-7F67F07B9659}" name="Initials"/>
-    <tableColumn id="5" xr3:uid="{25104B87-A33D-F442-9C0F-3CD891EA1A8E}" name="email address"/>
-    <tableColumn id="6" xr3:uid="{09168DF2-82A9-0C4D-BFDF-4E0760D4FC88}" name="Name on Publications "/>
-    <tableColumn id="7" xr3:uid="{44D24A4D-53E5-C14E-A072-8EC9B916EBEA}" name="Organisation"/>
-    <tableColumn id="8" xr3:uid="{F934AF41-B567-EC41-8E0E-EF6501A8D29D}" name="Address"/>
-    <tableColumn id="9" xr3:uid="{EA0867EF-AC4C-7F4E-B879-0F69EA6B9475}" name="Number of affiliations"/>
-    <tableColumn id="10" xr3:uid="{CD0F11AD-CA98-CD48-9FE3-5CB3018089B7}" name="Affiliation code"/>
-    <tableColumn id="11" xr3:uid="{FB16F301-2C7F-1D43-A27C-9D6BE7A124E8}" name="Affiliation address"/>
-    <tableColumn id="12" xr3:uid="{10876268-348E-0946-AAA8-583212905B6C}" name="Affiliation code2"/>
-    <tableColumn id="13" xr3:uid="{2B0CAB56-5EBF-CB4D-A943-E6DCB7CCE876}" name="Affiliation address3"/>
-    <tableColumn id="14" xr3:uid="{89CD1CF6-7C73-534D-9BC3-A6C7E09FE9B8}" name="ORCID "/>
-    <tableColumn id="15" xr3:uid="{249DB604-B94F-D74D-A187-DD8D33F46FE6}" name="Role"/>
-    <tableColumn id="16" xr3:uid="{90BC9280-7E05-404D-800A-74970F4FB903}" name="Status"/>
+    <tableColumn id="1" xr3:uid="{7F6846C3-59D2-AA4D-98AC-517912ABEFCA}" name="Title"/>
+    <tableColumn id="2" xr3:uid="{57A2EF13-D978-8140-93AD-5A9B65216A3E}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{B26DEBEE-822F-3742-BF13-43598DCA39B0}" name="Surname"/>
+    <tableColumn id="4" xr3:uid="{A970BBA4-F48F-5A4A-819B-F7BAC29E1D47}" name="Initials"/>
+    <tableColumn id="5" xr3:uid="{33FA5F5B-94C1-D94D-BE36-13F1D949965A}" name="email address"/>
+    <tableColumn id="6" xr3:uid="{6072FAEC-A1F7-8746-8562-BC6BC93BBF43}" name="Name on Publications "/>
+    <tableColumn id="7" xr3:uid="{50E178D4-E197-8F40-8FFE-4474A5DEF7F2}" name="Organisation"/>
+    <tableColumn id="8" xr3:uid="{C2DD39A3-1B4D-5448-BB99-02A5BB29977C}" name="Address"/>
+    <tableColumn id="9" xr3:uid="{72C8B9B8-E639-5A41-8A81-B0A98BA797D6}" name="Number of affiliations"/>
+    <tableColumn id="10" xr3:uid="{4C961E1F-BD29-E944-9E11-AB2146FA2AB5}" name="Affiliation code"/>
+    <tableColumn id="11" xr3:uid="{2257DE79-5182-CC4B-9E55-D807CDE23CBC}" name="Affiliation address"/>
+    <tableColumn id="12" xr3:uid="{27895537-1BA5-BE4B-8850-F3F1E60BBED7}" name="Affiliation code2"/>
+    <tableColumn id="13" xr3:uid="{90F9D7A9-2A46-5141-914D-EDFC6E6DD70D}" name="Affiliation address3"/>
+    <tableColumn id="14" xr3:uid="{4B3F1CB3-CC77-A641-A124-12496E71AEAE}" name="ORCID "/>
+    <tableColumn id="15" xr3:uid="{027D62E4-1928-8046-A774-A4F24A95BBAE}" name="Role"/>
+    <tableColumn id="16" xr3:uid="{C456D1D6-34B4-7447-B30A-A6E833AB5165}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1252,28 +1414,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E36F7E-01C1-C645-A567-F4934604AE01}">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="89.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="71.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="112.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="87.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -1363,130 +1525,139 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1494,42 +1665,36 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -1538,101 +1703,98 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>68</v>
       </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1640,13 +1802,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>87</v>
@@ -1655,10 +1817,10 @@
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1666,7 +1828,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
@@ -1684,10 +1846,10 @@
         <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1695,7 +1857,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>94</v>
@@ -1713,52 +1875,543 @@
         <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
         <v>82</v>
       </c>
-      <c r="I13">
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="O26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F00035-81EA-2642-A02E-3B4B3035AF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D1C6C-363D-6744-A4F6-6DB4480881C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="7200" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
+    <workbookView xWindow="38680" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="169">
   <si>
     <t>Title</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Imperial-NHS-CX-PPI</t>
   </si>
   <si>
-    <t>Imperial College London, CRUK PPI group, Charing Cross Hospital, London W6 8RF</t>
-  </si>
-  <si>
     <t>Ruth</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>Imperial-Physics</t>
   </si>
   <si>
-    <t>IC-NHS-CX-PPI</t>
-  </si>
-  <si>
     <t>0000-0002-9088-0149</t>
   </si>
   <si>
@@ -530,6 +524,9 @@
   </si>
   <si>
     <t>I. McNeish</t>
+  </si>
+  <si>
+    <t>CRUK PPI group, Charing Cross Hospital, London W6 8RF</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1575,7 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1592,37 +1589,37 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
       </c>
       <c r="O5" t="s">
         <v>33</v>
@@ -1633,25 +1630,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1665,25 +1662,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>63</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1697,37 +1694,37 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>67</v>
       </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
         <v>33</v>
@@ -1735,37 +1732,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>74</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
         <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>77</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1773,25 +1770,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1802,25 +1799,25 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>85</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>86</v>
       </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1831,25 +1828,25 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>91</v>
       </c>
-      <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1860,40 +1857,40 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>96</v>
       </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" t="s">
-        <v>98</v>
-      </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" t="s">
         <v>99</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>100</v>
-      </c>
-      <c r="L13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1901,75 +1898,75 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>108</v>
       </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>110</v>
-      </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" t="s">
         <v>111</v>
-      </c>
-      <c r="M15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1977,75 +1974,75 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
         <v>114</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>115</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>116</v>
       </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" t="s">
-        <v>118</v>
-      </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
         <v>121</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>122</v>
       </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" t="s">
-        <v>124</v>
-      </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2053,34 +2050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
         <v>125</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>126</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>127</v>
       </c>
-      <c r="E18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" t="s">
-        <v>129</v>
-      </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -2088,34 +2085,34 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>131</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>132</v>
       </c>
-      <c r="E19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2123,43 +2120,43 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
         <v>135</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>136</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>137</v>
       </c>
-      <c r="E20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" t="s">
-        <v>139</v>
-      </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2167,37 +2164,37 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
         <v>141</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>142</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>143</v>
       </c>
-      <c r="E21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" t="s">
-        <v>145</v>
-      </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2205,40 +2202,40 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
         <v>147</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>148</v>
       </c>
-      <c r="D22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" t="s">
         <v>99</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>100</v>
-      </c>
-      <c r="L22" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2246,34 +2243,34 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2281,72 +2278,72 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>85</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>86</v>
       </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
         <v>151</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>152</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>153</v>
       </c>
-      <c r="E25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" t="s">
-        <v>155</v>
-      </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2354,31 +2351,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
         <v>157</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>158</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>159</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>160</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>161</v>
-      </c>
-      <c r="G26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" t="s">
-        <v>163</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2386,25 +2383,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="s">
         <v>165</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>166</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>167</v>
       </c>
-      <c r="E27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" t="s">
-        <v>169</v>
-      </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I27">
         <v>0</v>

--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D1C6C-363D-6744-A4F6-6DB4480881C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B52C64-23EB-8B45-9D1D-249079DAA778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38680" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="169">
   <si>
     <t>Title</t>
   </si>
@@ -1071,8 +1071,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P27" totalsRowShown="0">
-  <autoFilter ref="A1:P27" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P25" totalsRowShown="0">
+  <autoFilter ref="A1:P25" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{7F6846C3-59D2-AA4D-98AC-517912ABEFCA}" name="Title"/>
     <tableColumn id="2" xr3:uid="{57A2EF13-D978-8140-93AD-5A9B65216A3E}" name="Name"/>
@@ -1412,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2240,22 +2240,22 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
         <v>67</v>
@@ -2272,141 +2272,71 @@
       <c r="K23" t="s">
         <v>98</v>
       </c>
+      <c r="N23" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>97</v>
-      </c>
-      <c r="K24" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" t="s">
-        <v>98</v>
-      </c>
-      <c r="N25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26">
         <v>0</v>
       </c>
-      <c r="O26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="O25" t="s">
         <v>33</v>
       </c>
     </row>

--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B52C64-23EB-8B45-9D1D-249079DAA778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF54EEE-70FB-D449-BA89-3BA7C188CD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38680" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
+    <workbookView xWindow="29560" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="173">
   <si>
     <t>Title</t>
   </si>
@@ -527,6 +527,18 @@
   </si>
   <si>
     <t>CRUK PPI group, Charing Cross Hospital, London W6 8RF</t>
+  </si>
+  <si>
+    <t>ISIS Neutron and Muon Source, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>Rehanah</t>
+  </si>
+  <si>
+    <t>Razak</t>
+  </si>
+  <si>
+    <t>r.razak22@imperial.ac.uk</t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1083,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P25" totalsRowShown="0">
-  <autoFilter ref="A1:P25" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P26" totalsRowShown="0">
+  <autoFilter ref="A1:P26" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{7F6846C3-59D2-AA4D-98AC-517912ABEFCA}" name="Title"/>
     <tableColumn id="2" xr3:uid="{57A2EF13-D978-8140-93AD-5A9B65216A3E}" name="Name"/>
@@ -1412,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1890,7 +1902,7 @@
         <v>99</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1971,22 +1983,22 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2003,31 +2015,25 @@
       <c r="K16" t="s">
         <v>98</v>
       </c>
-      <c r="L16" t="s">
-        <v>117</v>
-      </c>
-      <c r="M16" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
         <v>67</v>
@@ -2044,25 +2050,31 @@
       <c r="K17" t="s">
         <v>98</v>
       </c>
+      <c r="L17" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
         <v>67</v>
@@ -2078,6 +2090,12 @@
       </c>
       <c r="K18" t="s">
         <v>98</v>
+      </c>
+      <c r="L18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -2085,19 +2103,19 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
         <v>67</v>
@@ -2117,22 +2135,22 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
         <v>67</v>
@@ -2148,15 +2166,6 @@
       </c>
       <c r="K20" t="s">
         <v>98</v>
-      </c>
-      <c r="L20" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" t="s">
-        <v>110</v>
-      </c>
-      <c r="N20" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2164,19 +2173,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
         <v>67</v>
@@ -2193,28 +2202,34 @@
       <c r="K21" t="s">
         <v>98</v>
       </c>
+      <c r="L21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" t="s">
+        <v>110</v>
+      </c>
       <c r="N21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
         <v>67</v>
@@ -2231,31 +2246,28 @@
       <c r="K22" t="s">
         <v>98</v>
       </c>
-      <c r="L22" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" t="s">
-        <v>100</v>
+      <c r="N22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
         <v>67</v>
@@ -2272,40 +2284,49 @@
       <c r="K23" t="s">
         <v>98</v>
       </c>
-      <c r="N23" t="s">
-        <v>154</v>
+      <c r="L23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>162</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2313,19 +2334,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
         <v>160</v>
@@ -2337,6 +2358,38 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
         <v>33</v>
       </c>
     </row>

--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF54EEE-70FB-D449-BA89-3BA7C188CD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23694D2-7755-D140-AD67-D383834158C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29560" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="174">
   <si>
     <t>Title</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Imperial-Aero</t>
   </si>
   <si>
-    <t>Department of Aeronautics, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
-  </si>
-  <si>
     <t>14Oct24: OK</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Imperial-Computing</t>
   </si>
   <si>
-    <t>Department of Computing, Imperial College London, Exhibition Road, London SW7 2AZ</t>
-  </si>
-  <si>
     <t>IB</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>Imperial-NHS-RadPhys-Rbio</t>
   </si>
   <si>
-    <t>Dept. Radiation Physics and Radiobiology, Imperial College Healthcare NHS Trust, London, UK</t>
-  </si>
-  <si>
     <t>Phys-ICL</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>Josie M. McGarrigle </t>
   </si>
   <si>
-    <t>Department of Physics, Imperial College London, Exhibition Road, London SW7 2AZ, UK </t>
-  </si>
-  <si>
     <t>Inst-Curie</t>
   </si>
   <si>
@@ -505,9 +493,6 @@
     <t>Imperial-SurgCanc</t>
   </si>
   <si>
-    <t>Department of Surgery and Cancer, Imperial College, Hammersmith Hospital London W12 0NN</t>
-  </si>
-  <si>
     <t>TskMan, EB</t>
   </si>
   <si>
@@ -539,13 +524,31 @@
   </si>
   <si>
     <t>r.razak22@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>R. Razak</t>
+  </si>
+  <si>
+    <t>Department of Physics, Imperial College London, Exhibition Road, London, SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>Department of Surgery and Cancer, Imperial College, Hammersmith Hospital London, W12 0NN, UK</t>
+  </si>
+  <si>
+    <t>Department of Aeronautics, Imperial College London, Exhibition Road, London, SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>CRUK PPI group, Charing Cross Hospital, London, W6 8RF, UK</t>
+  </si>
+  <si>
+    <t>Dept. Radiation Physics and Radiobiology, Imperial College Healthcare NHS Trust, London, W2 1NY, UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -680,6 +683,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -978,7 +989,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1021,11 +1032,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1059,6 +1072,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1083,8 +1097,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P26" totalsRowShown="0">
-  <autoFilter ref="A1:P26" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P27" totalsRowShown="0">
+  <autoFilter ref="A1:P27" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{7F6846C3-59D2-AA4D-98AC-517912ABEFCA}" name="Title"/>
     <tableColumn id="2" xr3:uid="{57A2EF13-D978-8140-93AD-5A9B65216A3E}" name="Name"/>
@@ -1424,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,77 +1537,77 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1601,40 +1615,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1642,31 +1656,31 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1674,107 +1688,107 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1782,25 +1796,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1811,25 +1825,25 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1837,28 +1851,28 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1866,43 +1880,43 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
         <v>92</v>
       </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1910,110 +1924,110 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2021,81 +2035,81 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
         <v>112</v>
       </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" t="s">
-        <v>116</v>
-      </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -2103,34 +2117,34 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
         <v>123</v>
       </c>
-      <c r="C19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" t="s">
-        <v>127</v>
-      </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2138,116 +2152,116 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
       </c>
-      <c r="C20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
         <v>133</v>
       </c>
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" t="s">
-        <v>137</v>
-      </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" t="s">
         <v>139</v>
       </c>
-      <c r="C22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2255,148 +2269,186 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" t="s">
         <v>149</v>
       </c>
-      <c r="C24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" t="s">
-        <v>153</v>
-      </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" t="s">
-        <v>158</v>
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>162</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>33</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" xr:uid="{74689D35-F5DE-9146-985E-9BA20BC6EC9D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23694D2-7755-D140-AD67-D383834158C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9B976-695A-9B40-AC62-82F5C1A3F1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
+    <workbookView xWindow="5180" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="157">
   <si>
     <t>Title</t>
   </si>
@@ -244,18 +244,6 @@
     <t xml:space="preserve">Institut Curie,  73 Rue Claude Bernard,  75005, Paris, France </t>
   </si>
   <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>ahoward@mail.cern.ch</t>
-  </si>
-  <si>
-    <t>A. Howard</t>
-  </si>
-  <si>
     <t>Hin Tung</t>
   </si>
   <si>
@@ -361,24 +349,6 @@
     <t>J. Pasternak</t>
   </si>
   <si>
-    <t>CERN</t>
-  </si>
-  <si>
-    <t>CERN, CH-1211 Geneva 23, Switzerland</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>rebecca.taylor18@IMPERIAL.AC.UK</t>
-  </si>
-  <si>
-    <t>R Taylor</t>
-  </si>
-  <si>
     <t>Nicholas</t>
   </si>
   <si>
@@ -457,24 +427,6 @@
     <t>J. Pozimski</t>
   </si>
   <si>
-    <t>Anthea</t>
-  </si>
-  <si>
-    <t>MacIntosh-LaRocque</t>
-  </si>
-  <si>
-    <t>A.E.</t>
-  </si>
-  <si>
-    <t>anthea.macintosh-larocque18@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Anthea E. Macintosh-LaRoque</t>
-  </si>
-  <si>
-    <t>0000-0001-8212-2682</t>
-  </si>
-  <si>
     <t>Pat</t>
   </si>
   <si>
@@ -524,9 +476,6 @@
   </si>
   <si>
     <t>r.razak22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>R. Razak</t>
   </si>
   <si>
     <t>Department of Physics, Imperial College London, Exhibition Road, London, SW7 2AZ, UK</t>
@@ -548,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,14 +632,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -989,7 +930,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1032,13 +973,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1072,7 +1011,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1097,8 +1035,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P27" totalsRowShown="0">
-  <autoFilter ref="A1:P27" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}" name="Table1" displayName="Table1" ref="A1:P23" totalsRowShown="0">
+  <autoFilter ref="A1:P23" xr:uid="{FEC6A29B-3C67-AF41-BECB-8137EE6E4A30}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{7F6846C3-59D2-AA4D-98AC-517912ABEFCA}" name="Title"/>
     <tableColumn id="2" xr3:uid="{57A2EF13-D978-8140-93AD-5A9B65216A3E}" name="Name"/>
@@ -1438,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1569,7 +1507,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1601,7 +1539,7 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1633,7 +1571,7 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1674,7 +1612,7 @@
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1738,7 +1676,7 @@
         <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1747,7 +1685,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N8" t="s">
         <v>65</v>
@@ -1779,7 +1717,7 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1802,19 +1740,19 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1822,28 +1760,28 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1851,77 +1789,83 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
         <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
         <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>97</v>
@@ -1930,28 +1874,34 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" t="s">
         <v>100</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1959,75 +1909,75 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N15" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
         <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2035,54 +1985,48 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" t="s">
         <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
         <v>115</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>117</v>
@@ -2094,27 +2038,21 @@
         <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" t="s">
-        <v>113</v>
-      </c>
-      <c r="M18" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -2135,95 +2073,104 @@
         <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="L19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="N20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N21" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2246,209 +2193,54 @@
         <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" t="s">
-        <v>94</v>
-      </c>
-      <c r="N22" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" t="s">
-        <v>94</v>
-      </c>
-      <c r="N24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" t="s">
-        <v>169</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" t="s">
-        <v>170</v>
-      </c>
-      <c r="I26">
         <v>0</v>
       </c>
-      <c r="O26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="O23" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1" xr:uid="{74689D35-F5DE-9146-985E-9BA20BC6EC9D}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/Imperial.xlsx
+++ b/11-CollaborationList/Imperial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9B976-695A-9B40-AC62-82F5C1A3F1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F033F06D-ED9A-C949-965F-086E49C74744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
+    <workbookView xWindow="2200" yWindow="640" windowWidth="28040" windowHeight="17440" xr2:uid="{7B5F04B9-63DF-474E-BF2F-8D8D82A0D772}"/>
   </bookViews>
   <sheets>
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C3A07F-0925-B14D-9B78-C81CB9121297}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1813,7 +1813,7 @@
         <v>152</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>89</v>
@@ -1886,7 +1886,7 @@
         <v>152</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>89</v>
@@ -1965,7 +1965,7 @@
         <v>152</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>89</v>
@@ -2076,7 +2076,7 @@
         <v>152</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>89</v>
@@ -2158,7 +2158,7 @@
         <v>152</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>89</v>
